--- a/assets/db/medallistas_uaq.xlsx
+++ b/assets/db/medallistas_uaq.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ordaz\Local Sites\deportesuaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8EBC-5DE6-4BB9-A0C8-B16436A61CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="18"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="t_un_2001_v"/>
-    <sheet r:id="rId2" sheetId="2" name="t_un_2002_bc"/>
-    <sheet r:id="rId3" sheetId="3" name="t_un_2003_c"/>
-    <sheet r:id="rId4" sheetId="4" name="t_un_2006_m"/>
-    <sheet r:id="rId5" sheetId="5" name="t_un_2007_uanl"/>
-    <sheet r:id="rId6" sheetId="6" name="t_un_2008_g"/>
-    <sheet r:id="rId7" sheetId="7" name="t_un_2009_uaem"/>
-    <sheet r:id="rId8" sheetId="8" name="t_un_2011_uamex"/>
-    <sheet r:id="rId9" sheetId="9" name="t_un_2012_v"/>
-    <sheet r:id="rId10" sheetId="10" name="t_un_2013_s"/>
-    <sheet r:id="rId11" sheetId="11" name="t_un_2014_p"/>
-    <sheet r:id="rId12" sheetId="12" name="t_un_2015_uanl"/>
-    <sheet r:id="rId13" sheetId="13" name="t_un_2016_uanl"/>
-    <sheet r:id="rId14" sheetId="14" name="t_un_2017_uanl"/>
-    <sheet r:id="rId15" sheetId="15" name="t_un_2018_uaem"/>
-    <sheet r:id="rId16" sheetId="16" name="t_un_2019_uady"/>
-    <sheet r:id="rId17" sheetId="17" name="t_un_2021_gto"/>
-    <sheet r:id="rId18" sheetId="18" name="t_un_2022_uacj"/>
-    <sheet r:id="rId19" sheetId="19" name="t_un_2023_unison"/>
-    <sheet r:id="rId20" sheetId="20" name="t_un_2024_a"/>
+    <sheet name="t_un_2001_v" sheetId="1" r:id="rId1"/>
+    <sheet name="t_un_2002_bc" sheetId="2" r:id="rId2"/>
+    <sheet name="t_un_2003_c" sheetId="3" r:id="rId3"/>
+    <sheet name="t_un_2006_m" sheetId="4" r:id="rId4"/>
+    <sheet name="t_un_2007_uanl" sheetId="5" r:id="rId5"/>
+    <sheet name="t_un_2008_g" sheetId="6" r:id="rId6"/>
+    <sheet name="t_un_2009_uaem" sheetId="7" r:id="rId7"/>
+    <sheet name="t_un_2011_uamex" sheetId="8" r:id="rId8"/>
+    <sheet name="t_un_2012_v" sheetId="9" r:id="rId9"/>
+    <sheet name="t_un_2013_s" sheetId="10" r:id="rId10"/>
+    <sheet name="t_un_2014_p" sheetId="11" r:id="rId11"/>
+    <sheet name="t_un_2015_uanl" sheetId="12" r:id="rId12"/>
+    <sheet name="t_un_2016_uanl" sheetId="13" r:id="rId13"/>
+    <sheet name="t_un_2017_uanl" sheetId="14" r:id="rId14"/>
+    <sheet name="t_un_2018_uaem" sheetId="15" r:id="rId15"/>
+    <sheet name="t_un_2019_uady" sheetId="16" r:id="rId16"/>
+    <sheet name="t_un_2021_gto" sheetId="17" r:id="rId17"/>
+    <sheet name="t_un_2022_uacj" sheetId="18" r:id="rId18"/>
+    <sheet name="t_un_2023_unison" sheetId="19" r:id="rId19"/>
+    <sheet name="t_un_2024_a" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="271">
   <si>
     <t>n_id</t>
   </si>
@@ -77,9 +83,6 @@
     <t>77 kg</t>
   </si>
   <si>
-    <t>/img/salonFama/un_2024_a/JEAN_CARLOS_DEL_CASTILLO.png</t>
-  </si>
-  <si>
     <t>JORGE</t>
   </si>
   <si>
@@ -95,18 +98,12 @@
     <t>61 kg</t>
   </si>
   <si>
-    <t>/img/salonFama/un_2024_a/JORGE_OLVERA.png</t>
-  </si>
-  <si>
     <t>DIEGO</t>
   </si>
   <si>
     <t>65 kg</t>
   </si>
   <si>
-    <t>/img/salonFama/un_2024_a/DIEGO_OLVERA.png</t>
-  </si>
-  <si>
     <t>GILBERTO</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>130 kg</t>
   </si>
   <si>
-    <t>/img/salonFama/un_2024_a/GILBERTO_GARFIAS_GARCIA.png</t>
-  </si>
-  <si>
     <t>ENDERS DANIEL</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>81 kg</t>
   </si>
   <si>
-    <t>/img/salonFama/un_2024_a/ENDERS_DANIEL_JUAREZ.png</t>
-  </si>
-  <si>
     <t>ARTURO</t>
   </si>
   <si>
@@ -155,15 +146,6 @@
     <t>100 kg</t>
   </si>
   <si>
-    <t>/img/salonFama/un_2024_a/ARTURO_CAMPOS_AYALA.png</t>
-  </si>
-  <si>
-    <t>/img/salonFama/un_2023_u/JORGE_OLVERA.png</t>
-  </si>
-  <si>
-    <t>/img/salonFama/medallista_oculto.jpeg</t>
-  </si>
-  <si>
     <t>ISAAC</t>
   </si>
   <si>
@@ -849,13 +831,33 @@
   </si>
   <si>
     <t>MIRIAM</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/medallista_oculto.jpeg</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/JORGE_OLVERA.png</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/JEAN_CARLOS_DEL_CASTILLO.png</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/DIEGO_OLVERA.png</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/GILBERTO_GARFIAS_GARCIA.png</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/ENDERS_DANIEL_JUAREZ.png</t>
+  </si>
+  <si>
+    <t>http://deportesuaq.mx/wp-content/uploads/2024/10/ARTURO_CAMPOS_AYALA.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,83 +946,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1031,10 +1028,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1072,71 +1069,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1164,7 +1161,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1187,11 +1184,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1200,13 +1197,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1216,7 +1213,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1225,7 +1222,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1234,7 +1231,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1242,10 +1239,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1310,27 +1307,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1356,238 +1355,238 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>252</v>
+      <c r="B2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>252</v>
+      <c r="B3" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>252</v>
+      <c r="B4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>252</v>
+      <c r="B5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>252</v>
+      <c r="B6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>252</v>
+      <c r="B7" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>252</v>
+      <c r="B8" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>252</v>
+      <c r="B9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>252</v>
+      <c r="B10" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1596,27 +1595,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1650,25 +1650,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1676,126 +1676,126 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1804,27 +1804,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,59 +1851,59 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1910,22 +1911,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1934,27 +1935,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1980,160 +1982,160 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2142,232 +2144,234 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2376,27 +2380,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2422,316 +2428,316 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2740,64 +2746,65 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2806,218 +2813,218 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3026,27 +3033,28 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3072,18 +3080,18 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -3092,24 +3100,24 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -3118,166 +3126,166 @@
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3286,30 +3294,31 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>60</v>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3336,178 +3345,178 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="11">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3516,30 +3525,31 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>60</v>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3566,352 +3576,352 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="11">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3920,27 +3930,29 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3966,18 +3978,18 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -3986,166 +3998,166 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4154,27 +4166,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4200,238 +4214,238 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="20">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4440,27 +4454,29 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="69.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4486,7 +4502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4509,137 +4525,137 @@
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4648,27 +4664,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4694,264 +4712,264 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4960,27 +4978,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5006,111 +5026,63 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5118,27 +5090,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5164,30 +5138,30 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5196,27 +5170,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5242,134 +5218,134 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5378,27 +5354,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5424,550 +5402,550 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>200</v>
+        <v>164</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>134</v>
+        <v>164</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5976,27 +5954,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +6001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6030,126 +6009,126 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6158,27 +6137,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6204,212 +6184,212 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/assets/db/medallistas_uaq.xlsx
+++ b/assets/db/medallistas_uaq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ordaz\Local Sites\deportesuaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Local Sites\deportes-uaq\app\public\wp-content\themes\Deportes-UAQ\assets\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8EBC-5DE6-4BB9-A0C8-B16436A61CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C24A3AD-5A0A-4902-B373-E8822B3D80CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t_un_2001_v" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +889,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -943,10 +951,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,8 +1015,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1317,19 +1330,19 @@
       <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1381,7 +1394,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1407,7 +1420,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1459,7 +1472,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1563,7 +1576,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1605,18 +1618,18 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1694,7 +1707,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1746,7 +1759,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1814,18 +1827,18 @@
       <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1877,7 +1890,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1903,7 +1916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1945,18 +1958,18 @@
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2008,7 +2021,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2034,7 +2047,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2060,7 +2073,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2154,19 +2167,19 @@
       <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2296,7 +2309,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2322,7 +2335,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2348,7 +2361,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2390,19 +2403,19 @@
       <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2454,7 +2467,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2480,7 +2493,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2506,7 +2519,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2532,7 +2545,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2558,7 +2571,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2636,7 +2649,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2688,7 +2701,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2714,7 +2727,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2756,18 +2769,18 @@
       <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +2806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2819,7 +2832,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2845,7 +2858,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2871,7 +2884,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2897,7 +2910,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2923,7 +2936,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2949,7 +2962,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2975,7 +2988,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3043,18 +3056,18 @@
       <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3106,7 +3119,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3210,7 +3223,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3236,7 +3249,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3304,19 +3317,19 @@
       <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -3345,7 +3358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>3</v>
       </c>
@@ -3374,7 +3387,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>4</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>5</v>
       </c>
@@ -3432,7 +3445,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>6</v>
       </c>
@@ -3461,7 +3474,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>7</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -3535,19 +3548,19 @@
       <selection activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -3576,7 +3589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>2</v>
       </c>
@@ -3605,7 +3618,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -3634,7 +3647,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -3663,7 +3676,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>5</v>
       </c>
@@ -3692,7 +3705,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -3721,7 +3734,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>7</v>
       </c>
@@ -3750,7 +3763,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>8</v>
       </c>
@@ -3779,7 +3792,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>9</v>
       </c>
@@ -3808,7 +3821,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -3837,7 +3850,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>11</v>
       </c>
@@ -3866,7 +3879,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -3936,23 +3949,23 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.77734375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4000,11 +4013,11 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4027,10 +4040,10 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4056,7 +4069,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4108,7 +4121,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4134,7 +4147,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4161,6 +4174,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{CA3CDFB3-D92A-457B-B110-E0E6D9C09456}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4176,19 +4192,19 @@
       <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4240,7 +4256,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4266,7 +4282,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -4292,7 +4308,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4318,7 +4334,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4344,7 +4360,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -4370,7 +4386,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -4396,7 +4412,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -4422,7 +4438,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -4460,23 +4476,23 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.21875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4528,7 +4544,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4550,11 +4566,11 @@
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4576,11 +4592,11 @@
       <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4659,6 +4675,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{F6826919-3754-4568-8AF6-EB2D59359785}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{CA866113-62F3-47CC-B7D9-4E6714EFC970}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4674,19 +4694,19 @@
       <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4712,7 +4732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4738,7 +4758,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4764,7 +4784,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4790,7 +4810,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4816,7 +4836,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4842,7 +4862,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4868,7 +4888,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4894,7 +4914,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4920,7 +4940,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4946,7 +4966,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4988,19 +5008,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +5046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5052,35 +5072,35 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="H10" s="15"/>
     </row>
@@ -5100,19 +5120,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5180,19 +5200,19 @@
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5218,7 +5238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5244,7 +5264,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5270,7 +5290,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5296,7 +5316,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5322,7 +5342,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5364,19 +5384,19 @@
       <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5402,7 +5422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5428,7 +5448,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5454,7 +5474,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5480,7 +5500,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5506,7 +5526,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5532,7 +5552,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5558,7 +5578,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5584,7 +5604,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5610,7 +5630,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5636,7 +5656,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5662,7 +5682,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5688,7 +5708,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5714,7 +5734,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5740,7 +5760,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5766,7 +5786,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5792,7 +5812,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5818,7 +5838,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5844,7 +5864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5870,7 +5890,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5896,7 +5916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5922,7 +5942,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5964,18 +5984,18 @@
       <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6027,7 +6047,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6053,7 +6073,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6079,7 +6099,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6105,7 +6125,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6147,18 +6167,18 @@
       <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6210,7 +6230,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6236,7 +6256,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6262,7 +6282,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6288,7 +6308,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6314,7 +6334,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6340,7 +6360,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6366,7 +6386,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
